--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1360742.807122638</v>
+        <v>-1296759.891831544</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10395139.04235306</v>
+        <v>10377950.17499357</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>211.3059049049763</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>99.03748751078376</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>94.23627044463207</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>213.3936563002701</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>60.23804238065582</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>147.9228891666787</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>82.05834400605551</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,10 +908,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.5127770580434</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>147.9004852363404</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>1.424688477374375</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>209.9048653462157</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>319.7318317262877</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1291,19 +1291,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>61.06386613909876</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>70.80237915323286</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>203.6017805964899</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>85.55329631630663</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>131.5141848153389</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,10 +1591,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.02431517303447</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3.42339212608458</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.133574646794441</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,13 +2287,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>131.5141848153389</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -2530,13 +2530,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>27.07950026194645</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>46.45303019605535</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2773,13 +2773,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>195.152641037667</v>
+        <v>155.4300230108086</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2950,19 +2950,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>90.32734763589799</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>158.7868437042805</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3193,19 +3193,19 @@
         <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F34" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277809</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432311</v>
+        <v>71.53763939432407</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934494</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413117</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925402</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3430,19 +3430,19 @@
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F37" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856821</v>
       </c>
       <c r="H37" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432407</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934494</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762352</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3503,7 +3503,7 @@
         <v>405.8008644413113</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>417.525337749664</v>
       </c>
       <c r="D38" t="n">
         <v>415.3149766385525</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925402</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3667,19 +3667,19 @@
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277807</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432407</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934494</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925402</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432407</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934494</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762356</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925402</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432407</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934494</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.3315093046215</v>
+        <v>133.9815347741172</v>
       </c>
       <c r="C2" t="n">
-        <v>925.2294405284488</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>893.3600597432974</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>863.6257189419966</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1601.995278116143</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1601.995278116143</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1601.995278116143</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1601.18022756758</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X2" t="n">
-        <v>1385.631079789529</v>
+        <v>351.6675624188842</v>
       </c>
       <c r="Y2" t="n">
-        <v>1385.631079789529</v>
+        <v>347.4218427589418</v>
       </c>
     </row>
     <row r="3">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1199904125018</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1199904125018</v>
+        <v>260.6681688552936</v>
       </c>
       <c r="D4" t="n">
-        <v>376.2419976140245</v>
+        <v>94.79017605681625</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>94.79017605681625</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1164.348475529303</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1014.931415764981</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>769.5396610983935</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y4" t="n">
-        <v>542.1199904125018</v>
+        <v>433.2298803720686</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.1040799405456</v>
+        <v>1379.637330637604</v>
       </c>
       <c r="C5" t="n">
-        <v>805.2168637728128</v>
+        <v>941.4948578210276</v>
       </c>
       <c r="D5" t="n">
-        <v>376.6351895100811</v>
+        <v>505.585072995472</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9008487087803</v>
+        <v>475.8507321941713</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>452.023706643783</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>562.6504997812832</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210989</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640695</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599289</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352346</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536183</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536183</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2188.4195868532</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1825.802636787026</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.751429465681</v>
+        <v>1421.244276122336</v>
       </c>
       <c r="X5" t="n">
-        <v>914.6089660449919</v>
+        <v>1406.142216742051</v>
       </c>
       <c r="Y5" t="n">
-        <v>910.3632463850494</v>
+        <v>1401.896497082108</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583397</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.341159094982</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415353</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.130455568489</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.7466171846506</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.36152745083444</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>429.458713589735</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.231555524841</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.4547363200022</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588821</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381029</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>448.7051013968338</v>
+        <v>901.1219123439782</v>
       </c>
       <c r="C7" t="n">
-        <v>448.7051013968338</v>
+        <v>728.5602008272032</v>
       </c>
       <c r="D7" t="n">
-        <v>448.7051013968338</v>
+        <v>562.6822080287259</v>
       </c>
       <c r="E7" t="n">
-        <v>299.3106718651768</v>
+        <v>392.9242042794631</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>216.2171502412193</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704692</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>275.9722931853719</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>694.1821749533329</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1153.666042134246</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1595.924845291891</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2015.594094517672</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.100988488014</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352346</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352346</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2372.052394650343</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2126.172948228798</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>2124.733868958723</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1837.778360829153</v>
       </c>
       <c r="W7" t="n">
-        <v>885.9154747824084</v>
+        <v>1565.751956415445</v>
       </c>
       <c r="X7" t="n">
-        <v>640.5237201158209</v>
+        <v>1320.360201748857</v>
       </c>
       <c r="Y7" t="n">
-        <v>640.5237201158209</v>
+        <v>1092.940531062965</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1156.295315593938</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230546</v>
+        <v>944.2701990826091</v>
       </c>
       <c r="D8" t="n">
-        <v>788.0372869678147</v>
+        <v>912.4008182974577</v>
       </c>
       <c r="E8" t="n">
-        <v>758.3029461665139</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111165</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.5528969494776</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>350.5528969494776</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>350.5528969494776</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5528969494776</v>
+        <v>420.5753386802029</v>
       </c>
       <c r="F10" t="n">
-        <v>173.8458429112338</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>542.3715156684648</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.3715156684648</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1380.933009482558</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>942.7905366659811</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>506.8807518404256</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>506.8807518404256</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>79.01332224963333</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>79.01332224963333</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H11" t="n">
-        <v>79.01332224963333</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>79.01332224963333</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M11" t="n">
-        <v>451.1236612581935</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>1428.913524097406</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2406.703386936618</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3235.013261770015</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3781.51204772861</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481666</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.014238665503</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3661.355874426625</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3402.133571743641</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3039.516621677468</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2634.661167088501</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2215.518703667812</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1807.232579967465</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409262</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775684</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241217</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510754</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.134064167237</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334209</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>264.6182005228289</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634103</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569395</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025886</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414686</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206893</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1158.071482861515</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C13" t="n">
-        <v>985.5097713447398</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D13" t="n">
-        <v>819.6317785462625</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E13" t="n">
-        <v>649.8737747969997</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F13" t="n">
-        <v>473.1667207587558</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G13" t="n">
-        <v>307.5754457845835</v>
+        <v>188.678311297352</v>
       </c>
       <c r="H13" t="n">
-        <v>167.673271474958</v>
+        <v>188.678311297352</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963333</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143232</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854588</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534199</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2515.013742155801</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.134295734256</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2136.291684809672</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1849.336176680102</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1577.309772266394</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1577.309772266394</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1349.890101580502</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5282,46 +5282,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.781058858859</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>754.2193473420839</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,25 +5519,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5756,31 +5756,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5899,7 +5899,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5935,19 +5935,19 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2292.381813755403</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>2005.426305625833</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1733.399901212125</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
         <v>1600.55729028754</v>
@@ -5990,7 +5990,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
         <v>306.120802776629</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.441008084184</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>842.8792965674086</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6178,19 +6178,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W25" t="n">
-        <v>1680.07105215565</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X25" t="n">
-        <v>1434.679297489062</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y25" t="n">
-        <v>1207.259626803171</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="26">
@@ -6227,7 +6227,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
         <v>306.120802776629</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D28" t="n">
         <v>754.2193473420839</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1529.869425042911</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X28" t="n">
-        <v>1284.477670376323</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L29" t="n">
         <v>306.120802776629</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C31" t="n">
-        <v>699.0971113069977</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D31" t="n">
-        <v>533.2191185085204</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>351.3115407125492</v>
       </c>
       <c r="G31" t="n">
         <v>190.9207894961043</v>
@@ -6649,22 +6649,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="32">
@@ -6850,7 +6850,7 @@
         <v>298.0235489799766</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832272</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L35" t="n">
-        <v>1431.851786213076</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M36" t="n">
-        <v>287.8657185439749</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N36" t="n">
-        <v>287.8657185439749</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886291</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708293</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.64750088558</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.167761876911</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826199</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835849</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7208,7 +7208,7 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
         <v>3629.919912574026</v>
@@ -7257,13 +7257,13 @@
         <v>97.56670367581785</v>
       </c>
       <c r="L39" t="n">
-        <v>283.1715819490133</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M39" t="n">
-        <v>283.1715819490133</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N39" t="n">
-        <v>283.1715819490133</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O39" t="n">
         <v>283.1715819490133</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850146</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581785</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,10 +7372,10 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239091</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O42" t="n">
         <v>283.1715819490133</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080659</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716793</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850153</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7588,22 +7588,22 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
         <v>1677.257834230404</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.614538886369</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N44" t="n">
-        <v>2380.345522322816</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O44" t="n">
-        <v>3360.525188893122</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4188.835063726518</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4735.333849685113</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O45" t="n">
         <v>283.1715819490133</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7801,55 +7801,55 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758688</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823643</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856853</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301958</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694963</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361806</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
   </sheetData>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>517.1965904184206</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>382.6594326491799</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>227.6226443619444</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8693,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
-        <v>375.8690293015759</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204166</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204166</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>903.3699580700794</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10671,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10905,16 +10905,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>187.4796750234298</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>144.4457920260393</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>334.7235605776272</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>123.6302844110597</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>114.7019411172055</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.26477425920189</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.220053416764785</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>144.1344859240868</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.8761173587628</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>248.5691704774792</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>222.853110173516</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>74.15349933190436</v>
+        <v>113.8761173587628</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.50874676570932</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5.148518520150134</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>9.521272659185342e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>852377.3024896304</v>
+        <v>697527.7213976815</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753979.7515449834</v>
+        <v>908829.3326369327</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908829.332636933</v>
+        <v>908829.3326369327</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>908829.3326369331</v>
+        <v>908829.3326369327</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>908829.3326369327</v>
+        <v>908829.332636933</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>908829.3326369327</v>
+        <v>908829.3326369326</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>908829.332636933</v>
+        <v>908829.3326369327</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12353.29423898015</v>
+        <v>10109.0974115606</v>
       </c>
       <c r="C2" t="n">
         <v>13403.68299726021</v>
@@ -26320,7 +26320,7 @@
         <v>13403.68299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>10927.24277601426</v>
+        <v>13171.43960343381</v>
       </c>
       <c r="F2" t="n">
         <v>13171.43960343381</v>
@@ -26344,13 +26344,13 @@
         <v>13403.68299726022</v>
       </c>
       <c r="M2" t="n">
-        <v>13403.68299726022</v>
+        <v>13403.68299726021</v>
       </c>
       <c r="N2" t="n">
-        <v>13403.68299726022</v>
+        <v>13403.68299726021</v>
       </c>
       <c r="O2" t="n">
-        <v>13403.68299726022</v>
+        <v>13403.6829972602</v>
       </c>
       <c r="P2" t="n">
         <v>13403.68299726021</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246266</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106381</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880865</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658705</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338243</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099788</v>
+        <v>21768.74196143485</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962802</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713868</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145187.0004788316</v>
+        <v>93950.45407140574</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121444.0360228516</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>668.9466039800584</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
         <v>806.3323907826023</v>
@@ -26445,19 +26445,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>6148.690207415862</v>
+        <v>6148.690207415859</v>
       </c>
       <c r="M4" t="n">
-        <v>6148.690207415862</v>
+        <v>16466.6277878023</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780233</v>
+        <v>16466.6277878023</v>
       </c>
       <c r="O4" t="n">
-        <v>16466.62778780235</v>
+        <v>16466.62778780232</v>
       </c>
       <c r="P4" t="n">
-        <v>16466.62778780235</v>
+        <v>16466.62778780234</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295566</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972133</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334449.7950367837</v>
+        <v>-285786.9040153474</v>
       </c>
       <c r="C6" t="n">
-        <v>-215189.198409722</v>
+        <v>-247512.7676210097</v>
       </c>
       <c r="D6" t="n">
-        <v>-215189.1984097219</v>
+        <v>-185089.5509838119</v>
       </c>
       <c r="E6" t="n">
-        <v>-218001.9168241872</v>
+        <v>-247731.4649535737</v>
       </c>
       <c r="F6" t="n">
-        <v>-148615.8607497283</v>
+        <v>-65376.35573252394</v>
       </c>
       <c r="G6" t="n">
-        <v>-65353.13139314131</v>
+        <v>-65376.35573252394</v>
       </c>
       <c r="H6" t="n">
-        <v>-65353.1313931413</v>
+        <v>-65376.35573252394</v>
       </c>
       <c r="I6" t="n">
-        <v>-65353.13139314131</v>
+        <v>-65376.35573252395</v>
       </c>
       <c r="J6" t="n">
-        <v>-176367.5967381315</v>
+        <v>-176390.8210775141</v>
       </c>
       <c r="K6" t="n">
-        <v>-65353.13139314131</v>
+        <v>-119044.6827959064</v>
       </c>
       <c r="L6" t="n">
-        <v>-84816.7340194142</v>
+        <v>-93596.90770985116</v>
       </c>
       <c r="M6" t="n">
-        <v>-212222.3903446966</v>
+        <v>-216156.2602544837</v>
       </c>
       <c r="N6" t="n">
-        <v>-135381.3601737705</v>
+        <v>-78578.55951663181</v>
       </c>
       <c r="O6" t="n">
-        <v>-78578.55951663184</v>
+        <v>-78578.55951663182</v>
       </c>
       <c r="P6" t="n">
         <v>-78578.55951663184</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204166</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179821</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977048</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643287</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179821</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977048</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273064</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179821</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977048</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003122</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643287</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>210.7306698750824</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="X2" t="n">
-        <v>201.5573824862123</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>121.3832512028927</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>351.7027040823554</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0.2941229850335958</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.15993847542973</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>274.2239822620513</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>223.8561827421952</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>103.8569235685966</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>113.8761173587626</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>172.1354579666888</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874697</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874691</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874862</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874734</v>
       </c>
     </row>
   </sheetData>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>517.1965904184206</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>382.6594326491799</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380865</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>227.6226443619444</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
-        <v>375.8690293015759</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204166</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204166</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234299</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,10 +36358,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36595,10 +36595,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36832,10 +36832,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>903.3699580700794</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37391,13 +37391,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37625,16 +37625,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>187.4796750234298</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37786,7 +37786,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37956,7 +37956,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>144.4457920260393</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778293</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38181,13 +38181,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
